--- a/BackTest/2020-01-19 BackTest QTUM.xlsx
+++ b/BackTest/2020-01-19 BackTest QTUM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>34718.87939030999</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,17 +484,11 @@
         <v>43550.95379030999</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2287</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -523,17 +517,11 @@
         <v>55554.12339030999</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2289</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,17 +550,11 @@
         <v>50676.82841282999</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2305</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -601,17 +583,11 @@
         <v>50676.82841282999</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -640,17 +616,11 @@
         <v>44065.38801282999</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -679,17 +649,11 @@
         <v>53030.41351283</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2296</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -718,17 +682,11 @@
         <v>53030.41351283</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2315</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -757,17 +715,11 @@
         <v>73941.08271283</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2315</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -796,17 +748,11 @@
         <v>82873.51861283</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>2330</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -839,11 +785,7 @@
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -872,17 +814,11 @@
         <v>79542.59351283</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2308</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -911,17 +847,11 @@
         <v>85628.23991283</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2326</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -954,11 +884,7 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -991,11 +917,7 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1028,11 +950,7 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1065,11 +983,7 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1102,11 +1016,7 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1139,11 +1049,7 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1176,11 +1082,7 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1213,11 +1115,7 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1250,11 +1148,7 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1287,11 +1181,7 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1324,11 +1214,7 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1361,11 +1247,7 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1398,11 +1280,7 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1435,11 +1313,7 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1472,11 +1346,7 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1509,11 +1379,7 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1542,15 +1408,11 @@
         <v>190087.7128855</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1579,15 +1441,11 @@
         <v>175732.20637641</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1616,15 +1474,11 @@
         <v>190398.76867641</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1653,15 +1507,11 @@
         <v>244163.4895412</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1690,15 +1540,11 @@
         <v>290111.8784720399</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1731,11 +1577,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1768,11 +1610,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1805,11 +1643,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1842,11 +1676,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1879,11 +1709,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1916,11 +1742,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1953,11 +1775,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1990,11 +1808,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2027,11 +1841,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2064,11 +1874,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2101,11 +1907,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2138,11 +1940,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2175,11 +1973,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2208,16 +2002,14 @@
         <v>174061.8150957</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
       <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
@@ -2276,7 +2068,7 @@
         <v>179664.2751957</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2309,7 +2101,7 @@
         <v>186200.1029957</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2342,7 +2134,7 @@
         <v>181439.1048957</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2375,7 +2167,7 @@
         <v>187301.74997762</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2408,7 +2200,7 @@
         <v>185610.34917762</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2804,7 +2596,7 @@
         <v>202216.8962404</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2837,7 +2629,7 @@
         <v>184723.6882404</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2870,7 +2662,7 @@
         <v>183312.1224404</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2903,7 +2695,7 @@
         <v>184626.4107404</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2936,7 +2728,7 @@
         <v>182796.9022404</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2969,7 +2761,7 @@
         <v>182796.9022404</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3002,7 +2794,7 @@
         <v>183456.8081404</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3035,7 +2827,7 @@
         <v>185844.2733404</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3068,7 +2860,7 @@
         <v>185844.2733404</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3101,7 +2893,7 @@
         <v>180451.1742404</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3134,7 +2926,7 @@
         <v>182288.0308404</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3167,7 +2959,7 @@
         <v>176981.80980928</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3200,7 +2992,7 @@
         <v>177262.94500928</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3233,7 +3025,7 @@
         <v>176524.58640928</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3266,7 +3058,7 @@
         <v>178387.98000928</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3299,7 +3091,7 @@
         <v>172803.38160928</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3332,7 +3124,7 @@
         <v>173315.54730928</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3365,7 +3157,7 @@
         <v>172487.06840928</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3398,7 +3190,7 @@
         <v>167488.46160928</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3431,7 +3223,7 @@
         <v>169762.05470928</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3464,7 +3256,7 @@
         <v>168960.88250928</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3497,7 +3289,7 @@
         <v>168960.88250928</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3530,7 +3322,7 @@
         <v>168057.57860928</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3563,7 +3355,7 @@
         <v>168057.57860928</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3596,7 +3388,7 @@
         <v>164727.19470928</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3629,7 +3421,7 @@
         <v>167600.83740928</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3662,7 +3454,7 @@
         <v>169783.13420928</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3695,7 +3487,7 @@
         <v>170652.88160928</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3728,7 +3520,7 @@
         <v>167500.2612092801</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3761,7 +3553,7 @@
         <v>168127.4882092801</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3794,7 +3586,7 @@
         <v>176433.2805282901</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3827,7 +3619,7 @@
         <v>181785.1482282901</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3860,7 +3652,7 @@
         <v>183529.1301282901</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3893,7 +3685,7 @@
         <v>193284.0506282901</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3926,7 +3718,7 @@
         <v>191644.7807282901</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3959,7 +3751,7 @@
         <v>182131.6288282901</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3992,7 +3784,7 @@
         <v>177780.8724340901</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4025,7 +3817,7 @@
         <v>177780.8724340901</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4058,7 +3850,7 @@
         <v>177360.7601340901</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4091,7 +3883,7 @@
         <v>178842.8247340901</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4124,7 +3916,7 @@
         <v>175737.3199340901</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4157,7 +3949,7 @@
         <v>175538.6607340901</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4190,7 +3982,7 @@
         <v>172884.7074340901</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4223,7 +4015,7 @@
         <v>157143.2757340901</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4256,7 +4048,7 @@
         <v>158438.1078340901</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4289,7 +4081,7 @@
         <v>158142.5028340901</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4322,7 +4114,7 @@
         <v>156621.4080340901</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4355,7 +4147,7 @@
         <v>156470.4753340901</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4388,7 +4180,7 @@
         <v>158567.1903340901</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4421,7 +4213,7 @@
         <v>158722.2903340901</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4454,7 +4246,7 @@
         <v>157613.7257340901</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4487,7 +4279,7 @@
         <v>155030.6307340901</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4520,7 +4312,7 @@
         <v>154830.0399340901</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4553,7 +4345,7 @@
         <v>155244.0399340901</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4586,7 +4378,7 @@
         <v>155244.0399340901</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4619,7 +4411,7 @@
         <v>155244.0399340901</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4652,7 +4444,7 @@
         <v>155244.0399340901</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4685,7 +4477,7 @@
         <v>156605.8808340901</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4718,7 +4510,7 @@
         <v>157246.6798340901</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4751,7 +4543,7 @@
         <v>157670.6764340901</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4784,7 +4576,7 @@
         <v>157807.3931340901</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4817,7 +4609,7 @@
         <v>135278.3902340901</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4850,7 +4642,7 @@
         <v>129700.1392340901</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4883,7 +4675,7 @@
         <v>129701.1392340901</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4916,7 +4708,7 @@
         <v>129222.4860340901</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4949,7 +4741,7 @@
         <v>130517.9605340901</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4982,7 +4774,7 @@
         <v>130416.7918340901</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5015,7 +4807,7 @@
         <v>132682.2933340901</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5048,7 +4840,7 @@
         <v>133714.9680340901</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5081,7 +4873,7 @@
         <v>136647.7831378501</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5114,7 +4906,7 @@
         <v>141375.4440378501</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5147,7 +4939,7 @@
         <v>145423.4733378501</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5180,7 +4972,7 @@
         <v>145423.4733378501</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5213,7 +5005,7 @@
         <v>140462.1693378501</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5246,7 +5038,7 @@
         <v>146026.4610378501</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5279,7 +5071,7 @@
         <v>145236.9532378501</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5312,7 +5104,7 @@
         <v>143290.1536378501</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5345,7 +5137,7 @@
         <v>143290.1536378501</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5378,7 +5170,7 @@
         <v>143528.1536378501</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5411,7 +5203,7 @@
         <v>142500.7387378501</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5444,7 +5236,7 @@
         <v>142500.7387378501</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5477,7 +5269,7 @@
         <v>142500.7386378501</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5510,7 +5302,7 @@
         <v>142030.0273378501</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5543,7 +5335,7 @@
         <v>142631.8001378501</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5576,7 +5368,7 @@
         <v>143425.9796441101</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5609,7 +5401,7 @@
         <v>143427.4448441101</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5642,7 +5434,7 @@
         <v>146171.1718441101</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5675,7 +5467,7 @@
         <v>145506.7102441101</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5708,7 +5500,7 @@
         <v>145880.7102441101</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5741,7 +5533,7 @@
         <v>142891.4081441101</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5774,7 +5566,7 @@
         <v>134106.2211441101</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5807,7 +5599,7 @@
         <v>135245.8237441101</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5840,7 +5632,7 @@
         <v>134285.7806441101</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5873,7 +5665,7 @@
         <v>134176.4963441101</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5906,7 +5698,7 @@
         <v>134198.0033441101</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5939,7 +5731,7 @@
         <v>134359.0902441101</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5972,7 +5764,7 @@
         <v>134109.3973441101</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6005,7 +5797,7 @@
         <v>113651.8751441101</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6038,7 +5830,7 @@
         <v>113174.7137441101</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6071,7 +5863,7 @@
         <v>113048.6593441101</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6104,7 +5896,7 @@
         <v>113048.6593441101</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6137,7 +5929,7 @@
         <v>112981.1418441101</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6170,7 +5962,7 @@
         <v>112293.7404441101</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6203,7 +5995,7 @@
         <v>111722.0106441101</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6236,7 +6028,7 @@
         <v>112950.7448441101</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6269,7 +6061,7 @@
         <v>112891.1845441101</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6302,7 +6094,7 @@
         <v>112777.5283441101</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6335,7 +6127,7 @@
         <v>113874.4847441101</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6368,7 +6160,7 @@
         <v>114546.6809441101</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6401,7 +6193,7 @@
         <v>114714.6652441101</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6434,7 +6226,7 @@
         <v>116857.5619441101</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6467,7 +6259,7 @@
         <v>112279.6670017501</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6500,7 +6292,7 @@
         <v>112872.3036593901</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6533,7 +6325,7 @@
         <v>112872.3036593901</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6566,7 +6358,7 @@
         <v>112874.3036593901</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6599,7 +6391,7 @@
         <v>112347.0061593901</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6632,7 +6424,7 @@
         <v>112347.0061593901</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6665,7 +6457,7 @@
         <v>117249.9103593901</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6698,7 +6490,7 @@
         <v>120665.6429025201</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6731,7 +6523,7 @@
         <v>120872.8488593901</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6764,7 +6556,7 @@
         <v>120873.8488593901</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6797,7 +6589,7 @@
         <v>129485.4540593901</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6830,7 +6622,7 @@
         <v>132302.5943593901</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6863,7 +6655,7 @@
         <v>131932.2503593901</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6896,7 +6688,7 @@
         <v>133998.9735593901</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6929,7 +6721,7 @@
         <v>143350.1725593901</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6962,7 +6754,7 @@
         <v>143089.6596593901</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6995,7 +6787,7 @@
         <v>142843.0151593901</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7028,7 +6820,7 @@
         <v>143218.2781593901</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7061,7 +6853,7 @@
         <v>145071.7117593901</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7094,7 +6886,7 @@
         <v>147512.3950593901</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7127,7 +6919,7 @@
         <v>144028.5801593901</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7160,7 +6952,7 @@
         <v>144923.5801593901</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7193,7 +6985,7 @@
         <v>145101.5801593901</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7226,7 +7018,7 @@
         <v>143098.5801593901</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7259,7 +7051,7 @@
         <v>144027.8951593901</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7292,7 +7084,7 @@
         <v>145663.3118593901</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7325,7 +7117,7 @@
         <v>148590.7010593902</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7358,7 +7150,7 @@
         <v>146006.1748859702</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7391,7 +7183,7 @@
         <v>145728.4346617902</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7424,7 +7216,7 @@
         <v>145728.4346617902</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7457,7 +7249,7 @@
         <v>147118.0372617902</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7490,7 +7282,7 @@
         <v>146250.1773617902</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7523,7 +7315,7 @@
         <v>145092.6582617902</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7556,7 +7348,7 @@
         <v>144642.7450617902</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7589,7 +7381,7 @@
         <v>144022.1749617902</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7622,7 +7414,7 @@
         <v>139234.8056617902</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7655,7 +7447,7 @@
         <v>142833.2657617902</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7688,7 +7480,7 @@
         <v>139233.0784617902</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7721,7 +7513,7 @@
         <v>135836.9089617902</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7754,7 +7546,7 @@
         <v>133405.0585617902</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7787,7 +7579,7 @@
         <v>130946.1907617902</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7820,7 +7612,7 @@
         <v>126364.8712617902</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7853,7 +7645,7 @@
         <v>124544.1644617902</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7886,7 +7678,7 @@
         <v>120005.1614617902</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7919,7 +7711,7 @@
         <v>126515.5376617902</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7952,7 +7744,7 @@
         <v>128148.5587617902</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7985,7 +7777,7 @@
         <v>129058.3219617902</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8018,7 +7810,7 @@
         <v>131568.7748617902</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8051,7 +7843,7 @@
         <v>134854.4879617902</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8084,7 +7876,7 @@
         <v>135406.9049617902</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8117,7 +7909,7 @@
         <v>134269.2275617902</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8150,7 +7942,7 @@
         <v>134656.6372617902</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8183,7 +7975,7 @@
         <v>134656.6372617902</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8216,7 +8008,7 @@
         <v>132275.1513617902</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8249,7 +8041,7 @@
         <v>133862.2592617902</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8282,7 +8074,7 @@
         <v>130026.7723617902</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8315,7 +8107,7 @@
         <v>132482.5199617902</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8348,7 +8140,7 @@
         <v>132482.2237617901</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8381,7 +8173,7 @@
         <v>132482.4337617901</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8414,7 +8206,7 @@
         <v>132482.4337617901</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8447,7 +8239,7 @@
         <v>137797.9134617901</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8480,7 +8272,7 @@
         <v>137391.4134617901</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8513,7 +8305,7 @@
         <v>139554.3443617901</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8546,7 +8338,7 @@
         <v>137711.7037617901</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8579,7 +8371,7 @@
         <v>135419.4905617901</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8612,7 +8404,7 @@
         <v>130144.2194617901</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8645,7 +8437,7 @@
         <v>132290.4552617901</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8678,7 +8470,7 @@
         <v>132288.3581617901</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8711,7 +8503,7 @@
         <v>131089.5381617901</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8744,7 +8536,7 @@
         <v>131089.5381617901</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8777,7 +8569,7 @@
         <v>131089.5381617901</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8810,7 +8602,7 @@
         <v>131089.5381617901</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8843,7 +8635,7 @@
         <v>129936.0523617901</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8876,7 +8668,7 @@
         <v>130436.0523617901</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8909,7 +8701,7 @@
         <v>130435.1469617901</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8942,7 +8734,7 @@
         <v>130436.4147617901</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8975,7 +8767,7 @@
         <v>129371.6387617901</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9008,7 +8800,7 @@
         <v>128354.6676617901</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9041,7 +8833,7 @@
         <v>121747.1027617901</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9074,7 +8866,7 @@
         <v>121757.9927617901</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9107,7 +8899,7 @@
         <v>121757.6727617901</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9140,7 +8932,7 @@
         <v>122439.9490617901</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9173,7 +8965,7 @@
         <v>122338.3090617901</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9206,7 +8998,7 @@
         <v>120475.4825617901</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9239,7 +9031,7 @@
         <v>120475.4825617901</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9272,7 +9064,7 @@
         <v>121805.8844617901</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9305,7 +9097,7 @@
         <v>118334.3069617901</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9338,7 +9130,7 @@
         <v>118348.4510617901</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9371,7 +9163,7 @@
         <v>118709.2529617901</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9404,7 +9196,7 @@
         <v>118609.4530617901</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9437,7 +9229,7 @@
         <v>120632.7028617901</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9470,7 +9262,7 @@
         <v>121766.7780617901</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9602,7 +9394,7 @@
         <v>121766.7780617901</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9635,7 +9427,7 @@
         <v>121766.7780617901</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9668,7 +9460,7 @@
         <v>121767.0980617902</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9701,7 +9493,7 @@
         <v>121784.3180617902</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9734,7 +9526,7 @@
         <v>121784.7321404602</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9767,7 +9559,7 @@
         <v>121782.0321404602</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9800,7 +9592,7 @@
         <v>121782.0321404602</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9833,7 +9625,7 @@
         <v>121782.3521404602</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9866,7 +9658,7 @@
         <v>123032.9779156102</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9899,7 +9691,7 @@
         <v>124909.0411404602</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9932,7 +9724,7 @@
         <v>124297.5501404602</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9965,7 +9757,7 @@
         <v>124299.4701404602</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9998,7 +9790,7 @@
         <v>123832.8697404602</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10031,7 +9823,7 @@
         <v>124874.9943404602</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -10064,7 +9856,7 @@
         <v>123256.1636404602</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10097,7 +9889,7 @@
         <v>123256.1636404602</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10130,7 +9922,7 @@
         <v>121688.6933404602</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10163,7 +9955,7 @@
         <v>121686.5951404602</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10196,7 +9988,7 @@
         <v>121686.9151404602</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10229,7 +10021,7 @@
         <v>121570.9092404602</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10262,7 +10054,7 @@
         <v>122130.8307404602</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10295,7 +10087,7 @@
         <v>122908.2261404602</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10328,7 +10120,7 @@
         <v>122939.7799404602</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10361,7 +10153,7 @@
         <v>122939.7799404602</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10394,7 +10186,7 @@
         <v>122185.2155404602</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10427,7 +10219,7 @@
         <v>122815.1434404601</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10460,7 +10252,7 @@
         <v>123634.8909404601</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10493,7 +10285,7 @@
         <v>123427.0813464201</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10526,7 +10318,7 @@
         <v>126218.5368021001</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10559,7 +10351,7 @@
         <v>125776.1370200701</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10592,7 +10384,7 @@
         <v>125776.1370200701</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10625,7 +10417,7 @@
         <v>120796.5125200701</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10658,7 +10450,7 @@
         <v>120134.5572200701</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -24947,17 +24739,11 @@
         <v>-47371.44583234985</v>
       </c>
       <c r="H738" t="n">
-        <v>1</v>
-      </c>
-      <c r="I738" t="n">
-        <v>2255</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K738" t="inlineStr"/>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -24990,11 +24776,7 @@
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K739" t="inlineStr"/>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -25023,17 +24805,11 @@
         <v>-47586.34704568986</v>
       </c>
       <c r="H740" t="n">
-        <v>1</v>
-      </c>
-      <c r="I740" t="n">
-        <v>2245</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K740" t="inlineStr"/>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -25062,17 +24838,11 @@
         <v>-47586.34704568986</v>
       </c>
       <c r="H741" t="n">
-        <v>1</v>
-      </c>
-      <c r="I741" t="n">
-        <v>2242</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K741" t="inlineStr"/>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -25101,17 +24871,11 @@
         <v>-49384.41294568986</v>
       </c>
       <c r="H742" t="n">
-        <v>1</v>
-      </c>
-      <c r="I742" t="n">
-        <v>2242</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K742" t="inlineStr"/>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -25140,17 +24904,11 @@
         <v>-49368.41294568986</v>
       </c>
       <c r="H743" t="n">
-        <v>1</v>
-      </c>
-      <c r="I743" t="n">
-        <v>2240</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K743" t="inlineStr"/>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -25179,17 +24937,11 @@
         <v>-49367.42363135986</v>
       </c>
       <c r="H744" t="n">
-        <v>1</v>
-      </c>
-      <c r="I744" t="n">
-        <v>2243</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K744" t="inlineStr"/>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -25218,17 +24970,11 @@
         <v>-50676.34833135986</v>
       </c>
       <c r="H745" t="n">
-        <v>1</v>
-      </c>
-      <c r="I745" t="n">
-        <v>2246</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K745" t="inlineStr"/>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -25257,17 +25003,11 @@
         <v>-53606.95013135986</v>
       </c>
       <c r="H746" t="n">
-        <v>1</v>
-      </c>
-      <c r="I746" t="n">
-        <v>2242</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K746" t="inlineStr"/>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -25296,17 +25036,11 @@
         <v>-47470.60933135986</v>
       </c>
       <c r="H747" t="n">
-        <v>1</v>
-      </c>
-      <c r="I747" t="n">
-        <v>2238</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K747" t="inlineStr"/>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -25335,17 +25069,11 @@
         <v>-47248.60933135986</v>
       </c>
       <c r="H748" t="n">
-        <v>1</v>
-      </c>
-      <c r="I748" t="n">
-        <v>2242</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K748" t="inlineStr"/>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -25374,17 +25102,11 @@
         <v>-47248.60933135986</v>
       </c>
       <c r="H749" t="n">
-        <v>1</v>
-      </c>
-      <c r="I749" t="n">
-        <v>2243</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K749" t="inlineStr"/>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -25413,17 +25135,11 @@
         <v>-48915.35393135986</v>
       </c>
       <c r="H750" t="n">
-        <v>1</v>
-      </c>
-      <c r="I750" t="n">
-        <v>2243</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K750" t="inlineStr"/>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -25452,17 +25168,11 @@
         <v>-47707.99043135986</v>
       </c>
       <c r="H751" t="n">
-        <v>1</v>
-      </c>
-      <c r="I751" t="n">
-        <v>2239</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K751" t="inlineStr"/>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -25491,17 +25201,11 @@
         <v>-47555.51824622986</v>
       </c>
       <c r="H752" t="n">
-        <v>1</v>
-      </c>
-      <c r="I752" t="n">
-        <v>2243</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K752" t="inlineStr"/>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -25530,17 +25234,11 @@
         <v>-48014.67984622986</v>
       </c>
       <c r="H753" t="n">
-        <v>1</v>
-      </c>
-      <c r="I753" t="n">
-        <v>2247</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K753" t="inlineStr"/>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -25573,11 +25271,7 @@
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K754" t="inlineStr"/>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -25610,11 +25304,7 @@
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K755" t="inlineStr"/>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -25647,11 +25337,7 @@
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K756" t="inlineStr"/>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -25680,17 +25366,11 @@
         <v>-45918.33114622986</v>
       </c>
       <c r="H757" t="n">
-        <v>1</v>
-      </c>
-      <c r="I757" t="n">
-        <v>2248</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K757" t="inlineStr"/>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -25727,7 +25407,7 @@
       <c r="J758" t="inlineStr"/>
       <c r="K758" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L758" t="n">
@@ -25836,11 +25516,9 @@
         <v>-40750.60540016986</v>
       </c>
       <c r="H761" t="n">
-        <v>1</v>
-      </c>
-      <c r="I761" t="n">
-        <v>2254</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
       <c r="K761" t="inlineStr">
         <is>
@@ -25875,11 +25553,9 @@
         <v>-39554.70211353987</v>
       </c>
       <c r="H762" t="n">
-        <v>1</v>
-      </c>
-      <c r="I762" t="n">
-        <v>2259</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
       <c r="K762" t="inlineStr">
         <is>
@@ -25914,11 +25590,9 @@
         <v>-37576.86011353987</v>
       </c>
       <c r="H763" t="n">
-        <v>1</v>
-      </c>
-      <c r="I763" t="n">
-        <v>2260</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
       <c r="K763" t="inlineStr">
         <is>
@@ -25953,11 +25627,9 @@
         <v>-37703.48121353987</v>
       </c>
       <c r="H764" t="n">
-        <v>1</v>
-      </c>
-      <c r="I764" t="n">
-        <v>2265</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
       <c r="K764" t="inlineStr">
         <is>
@@ -25992,11 +25664,9 @@
         <v>-36229.98776175987</v>
       </c>
       <c r="H765" t="n">
-        <v>1</v>
-      </c>
-      <c r="I765" t="n">
-        <v>2261</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
       <c r="K765" t="inlineStr">
         <is>
@@ -26031,11 +25701,9 @@
         <v>-37506.36817512987</v>
       </c>
       <c r="H766" t="n">
-        <v>1</v>
-      </c>
-      <c r="I766" t="n">
-        <v>2263</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
       <c r="K766" t="inlineStr">
         <is>
@@ -26070,11 +25738,9 @@
         <v>-38250.71377512987</v>
       </c>
       <c r="H767" t="n">
-        <v>1</v>
-      </c>
-      <c r="I767" t="n">
-        <v>2259</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
       <c r="K767" t="inlineStr">
         <is>
@@ -26109,11 +25775,9 @@
         <v>-38250.71377512987</v>
       </c>
       <c r="H768" t="n">
-        <v>1</v>
-      </c>
-      <c r="I768" t="n">
-        <v>2254</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
       <c r="K768" t="inlineStr">
         <is>
@@ -26148,11 +25812,9 @@
         <v>-38280.31377512987</v>
       </c>
       <c r="H769" t="n">
-        <v>1</v>
-      </c>
-      <c r="I769" t="n">
-        <v>2254</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
       <c r="K769" t="inlineStr">
         <is>
@@ -26265,11 +25927,9 @@
         <v>-36326.04117512987</v>
       </c>
       <c r="H772" t="n">
-        <v>1</v>
-      </c>
-      <c r="I772" t="n">
-        <v>2257</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
       <c r="K772" t="inlineStr">
         <is>
@@ -26304,11 +25964,9 @@
         <v>-36608.68707512987</v>
       </c>
       <c r="H773" t="n">
-        <v>1</v>
-      </c>
-      <c r="I773" t="n">
-        <v>2260</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
       <c r="K773" t="inlineStr">
         <is>
@@ -26343,11 +26001,9 @@
         <v>-36608.68707512987</v>
       </c>
       <c r="H774" t="n">
-        <v>1</v>
-      </c>
-      <c r="I774" t="n">
-        <v>2254</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
       <c r="K774" t="inlineStr">
         <is>
@@ -26382,11 +26038,9 @@
         <v>-37568.22477512987</v>
       </c>
       <c r="H775" t="n">
-        <v>1</v>
-      </c>
-      <c r="I775" t="n">
-        <v>2254</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
       <c r="K775" t="inlineStr">
         <is>
@@ -26421,11 +26075,9 @@
         <v>-38309.09367512987</v>
       </c>
       <c r="H776" t="n">
-        <v>1</v>
-      </c>
-      <c r="I776" t="n">
-        <v>2253</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
       <c r="K776" t="inlineStr">
         <is>
@@ -26460,11 +26112,9 @@
         <v>-38307.76727512987</v>
       </c>
       <c r="H777" t="n">
-        <v>1</v>
-      </c>
-      <c r="I777" t="n">
-        <v>2252</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
       <c r="K777" t="inlineStr">
         <is>
@@ -26499,11 +26149,9 @@
         <v>-38412.21797512988</v>
       </c>
       <c r="H778" t="n">
-        <v>1</v>
-      </c>
-      <c r="I778" t="n">
-        <v>2256</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
       <c r="K778" t="inlineStr">
         <is>
@@ -26538,11 +26186,9 @@
         <v>-39049.15837512987</v>
       </c>
       <c r="H779" t="n">
-        <v>1</v>
-      </c>
-      <c r="I779" t="n">
-        <v>2252</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
       <c r="K779" t="inlineStr">
         <is>
@@ -26577,11 +26223,9 @@
         <v>-39049.15837512987</v>
       </c>
       <c r="H780" t="n">
-        <v>1</v>
-      </c>
-      <c r="I780" t="n">
-        <v>2251</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
       <c r="K780" t="inlineStr">
         <is>
@@ -26616,11 +26260,9 @@
         <v>-39965.43760359987</v>
       </c>
       <c r="H781" t="n">
-        <v>1</v>
-      </c>
-      <c r="I781" t="n">
-        <v>2251</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
       <c r="K781" t="inlineStr">
         <is>
@@ -26655,11 +26297,9 @@
         <v>-39965.43760359987</v>
       </c>
       <c r="H782" t="n">
-        <v>1</v>
-      </c>
-      <c r="I782" t="n">
-        <v>2249</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
       <c r="K782" t="inlineStr">
         <is>
@@ -27240,11 +26880,9 @@
         <v>-32638.83118995988</v>
       </c>
       <c r="H797" t="n">
-        <v>1</v>
-      </c>
-      <c r="I797" t="n">
-        <v>2256</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
       <c r="K797" t="inlineStr">
         <is>
@@ -27279,11 +26917,9 @@
         <v>-31858.77684494988</v>
       </c>
       <c r="H798" t="n">
-        <v>1</v>
-      </c>
-      <c r="I798" t="n">
-        <v>2276</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
       <c r="K798" t="inlineStr">
         <is>
@@ -27318,11 +26954,9 @@
         <v>-31344.44544494988</v>
       </c>
       <c r="H799" t="n">
-        <v>1</v>
-      </c>
-      <c r="I799" t="n">
-        <v>2277</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
       <c r="K799" t="inlineStr">
         <is>
@@ -27357,11 +26991,9 @@
         <v>-31289.26024494988</v>
       </c>
       <c r="H800" t="n">
-        <v>1</v>
-      </c>
-      <c r="I800" t="n">
-        <v>2279</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
       <c r="K800" t="inlineStr">
         <is>
@@ -27396,11 +27028,9 @@
         <v>-10691.33474494988</v>
       </c>
       <c r="H801" t="n">
-        <v>1</v>
-      </c>
-      <c r="I801" t="n">
-        <v>2280</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
       <c r="K801" t="inlineStr">
         <is>
@@ -27435,11 +27065,9 @@
         <v>-11921.48664494988</v>
       </c>
       <c r="H802" t="n">
-        <v>1</v>
-      </c>
-      <c r="I802" t="n">
-        <v>2295</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
       <c r="K802" t="inlineStr">
         <is>
@@ -27474,11 +27102,9 @@
         <v>-15690.88874494988</v>
       </c>
       <c r="H803" t="n">
-        <v>1</v>
-      </c>
-      <c r="I803" t="n">
-        <v>2287</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
       <c r="K803" t="inlineStr">
         <is>
@@ -27550,11 +27176,9 @@
         <v>-15782.17664494988</v>
       </c>
       <c r="H805" t="n">
-        <v>1</v>
-      </c>
-      <c r="I805" t="n">
-        <v>2290</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
       <c r="K805" t="inlineStr">
         <is>
@@ -27700,11 +27324,9 @@
         <v>-13805.01992052988</v>
       </c>
       <c r="H809" t="n">
-        <v>1</v>
-      </c>
-      <c r="I809" t="n">
-        <v>2296</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
       <c r="K809" t="inlineStr">
         <is>
@@ -27739,11 +27361,9 @@
         <v>-12807.60932052988</v>
       </c>
       <c r="H810" t="n">
-        <v>1</v>
-      </c>
-      <c r="I810" t="n">
-        <v>2291</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
       <c r="K810" t="inlineStr">
         <is>
@@ -27778,11 +27398,9 @@
         <v>-12807.60932052988</v>
       </c>
       <c r="H811" t="n">
-        <v>1</v>
-      </c>
-      <c r="I811" t="n">
-        <v>2296</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
       <c r="K811" t="inlineStr">
         <is>
@@ -27817,11 +27435,9 @@
         <v>-12807.60932052988</v>
       </c>
       <c r="H812" t="n">
-        <v>1</v>
-      </c>
-      <c r="I812" t="n">
-        <v>2296</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
       <c r="K812" t="inlineStr">
         <is>
@@ -27856,11 +27472,9 @@
         <v>-12807.60932052988</v>
       </c>
       <c r="H813" t="n">
-        <v>1</v>
-      </c>
-      <c r="I813" t="n">
-        <v>2296</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
       <c r="K813" t="inlineStr">
         <is>
@@ -27895,11 +27509,9 @@
         <v>-10730.91492052988</v>
       </c>
       <c r="H814" t="n">
-        <v>1</v>
-      </c>
-      <c r="I814" t="n">
-        <v>2296</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
       <c r="K814" t="inlineStr">
         <is>
@@ -27934,11 +27546,9 @@
         <v>-10557.83652052988</v>
       </c>
       <c r="H815" t="n">
-        <v>1</v>
-      </c>
-      <c r="I815" t="n">
-        <v>2298</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
       <c r="K815" t="inlineStr">
         <is>
@@ -28454,11 +28064,9 @@
         <v>-17831.83350514988</v>
       </c>
       <c r="H829" t="n">
-        <v>1</v>
-      </c>
-      <c r="I829" t="n">
-        <v>2304</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
       <c r="K829" t="inlineStr">
         <is>
@@ -28493,11 +28101,9 @@
         <v>-17831.83350514988</v>
       </c>
       <c r="H830" t="n">
-        <v>1</v>
-      </c>
-      <c r="I830" t="n">
-        <v>2295</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
       <c r="K830" t="inlineStr">
         <is>
@@ -28532,11 +28138,9 @@
         <v>-26100.72410514989</v>
       </c>
       <c r="H831" t="n">
-        <v>1</v>
-      </c>
-      <c r="I831" t="n">
-        <v>2295</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
       <c r="K831" t="inlineStr">
         <is>
@@ -28571,11 +28175,9 @@
         <v>-24072.27380514989</v>
       </c>
       <c r="H832" t="n">
-        <v>1</v>
-      </c>
-      <c r="I832" t="n">
-        <v>2283</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
       <c r="K832" t="inlineStr">
         <is>
@@ -28610,11 +28212,9 @@
         <v>-25454.44240514989</v>
       </c>
       <c r="H833" t="n">
-        <v>1</v>
-      </c>
-      <c r="I833" t="n">
-        <v>2285</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
       <c r="K833" t="inlineStr">
         <is>
@@ -28649,11 +28249,9 @@
         <v>-25978.81650514989</v>
       </c>
       <c r="H834" t="n">
-        <v>1</v>
-      </c>
-      <c r="I834" t="n">
-        <v>2284</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
       <c r="K834" t="inlineStr">
         <is>
@@ -28688,11 +28286,9 @@
         <v>-28002.60930514989</v>
       </c>
       <c r="H835" t="n">
-        <v>1</v>
-      </c>
-      <c r="I835" t="n">
-        <v>2283</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
       <c r="K835" t="inlineStr">
         <is>
@@ -28727,11 +28323,9 @@
         <v>-28002.60930514989</v>
       </c>
       <c r="H836" t="n">
-        <v>1</v>
-      </c>
-      <c r="I836" t="n">
-        <v>2281</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
       <c r="K836" t="inlineStr">
         <is>
@@ -28766,11 +28360,9 @@
         <v>-28005.36877344989</v>
       </c>
       <c r="H837" t="n">
-        <v>1</v>
-      </c>
-      <c r="I837" t="n">
-        <v>2281</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
       <c r="K837" t="inlineStr">
         <is>
@@ -28805,11 +28397,9 @@
         <v>-30622.58437344988</v>
       </c>
       <c r="H838" t="n">
-        <v>1</v>
-      </c>
-      <c r="I838" t="n">
-        <v>2279</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
       <c r="K838" t="inlineStr">
         <is>
@@ -28844,11 +28434,9 @@
         <v>-30622.58437344988</v>
       </c>
       <c r="H839" t="n">
-        <v>1</v>
-      </c>
-      <c r="I839" t="n">
-        <v>2275</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
       <c r="K839" t="inlineStr">
         <is>
@@ -28883,11 +28471,9 @@
         <v>-30516.24857344988</v>
       </c>
       <c r="H840" t="n">
-        <v>1</v>
-      </c>
-      <c r="I840" t="n">
-        <v>2275</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
       <c r="K840" t="inlineStr">
         <is>
@@ -28922,11 +28508,9 @@
         <v>-30096.98774735988</v>
       </c>
       <c r="H841" t="n">
-        <v>1</v>
-      </c>
-      <c r="I841" t="n">
-        <v>2277</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
       <c r="K841" t="inlineStr">
         <is>
@@ -28961,11 +28545,9 @@
         <v>-27607.08914735988</v>
       </c>
       <c r="H842" t="n">
-        <v>1</v>
-      </c>
-      <c r="I842" t="n">
-        <v>2283</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
       <c r="K842" t="inlineStr">
         <is>
@@ -29000,11 +28582,9 @@
         <v>-27406.42784735988</v>
       </c>
       <c r="H843" t="n">
-        <v>1</v>
-      </c>
-      <c r="I843" t="n">
-        <v>2289</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
       <c r="K843" t="inlineStr">
         <is>
@@ -29039,11 +28619,9 @@
         <v>-27077.67984735988</v>
       </c>
       <c r="H844" t="n">
-        <v>1</v>
-      </c>
-      <c r="I844" t="n">
-        <v>2305</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
       <c r="K844" t="inlineStr">
         <is>
@@ -30558,11 +30136,9 @@
         <v>-55279.42969928989</v>
       </c>
       <c r="H885" t="n">
-        <v>1</v>
-      </c>
-      <c r="I885" t="n">
-        <v>2304</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
       <c r="K885" t="inlineStr">
         <is>
@@ -30819,11 +30395,9 @@
         <v>-57333.28959928988</v>
       </c>
       <c r="H892" t="n">
-        <v>1</v>
-      </c>
-      <c r="I892" t="n">
-        <v>2295</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
       <c r="K892" t="inlineStr">
         <is>
@@ -30858,11 +30432,9 @@
         <v>-57333.28959928988</v>
       </c>
       <c r="H893" t="n">
-        <v>1</v>
-      </c>
-      <c r="I893" t="n">
-        <v>2290</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
       <c r="K893" t="inlineStr">
         <is>
@@ -30897,11 +30469,9 @@
         <v>-58372.05289928988</v>
       </c>
       <c r="H894" t="n">
-        <v>1</v>
-      </c>
-      <c r="I894" t="n">
-        <v>2290</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
       <c r="K894" t="inlineStr">
         <is>
@@ -30936,11 +30506,9 @@
         <v>-60705.01659928988</v>
       </c>
       <c r="H895" t="n">
-        <v>1</v>
-      </c>
-      <c r="I895" t="n">
-        <v>2283</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
       <c r="K895" t="inlineStr">
         <is>
@@ -30975,11 +30543,9 @@
         <v>-63901.24939928988</v>
       </c>
       <c r="H896" t="n">
-        <v>1</v>
-      </c>
-      <c r="I896" t="n">
-        <v>2280</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
       <c r="K896" t="inlineStr">
         <is>
@@ -31014,11 +30580,9 @@
         <v>-63732.65379928988</v>
       </c>
       <c r="H897" t="n">
-        <v>1</v>
-      </c>
-      <c r="I897" t="n">
-        <v>2276</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
       <c r="K897" t="inlineStr">
         <is>
@@ -31053,11 +30617,9 @@
         <v>-63244.77539928988</v>
       </c>
       <c r="H898" t="n">
-        <v>1</v>
-      </c>
-      <c r="I898" t="n">
-        <v>2280</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
       <c r="K898" t="inlineStr">
         <is>
@@ -31092,11 +30654,9 @@
         <v>-63921.38899928988</v>
       </c>
       <c r="H899" t="n">
-        <v>1</v>
-      </c>
-      <c r="I899" t="n">
-        <v>2284</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
       <c r="K899" t="inlineStr">
         <is>
@@ -31131,11 +30691,9 @@
         <v>-60738.55949928988</v>
       </c>
       <c r="H900" t="n">
-        <v>1</v>
-      </c>
-      <c r="I900" t="n">
-        <v>2283</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
       <c r="K900" t="inlineStr">
         <is>
@@ -31170,11 +30728,9 @@
         <v>-61737.41999928988</v>
       </c>
       <c r="H901" t="n">
-        <v>1</v>
-      </c>
-      <c r="I901" t="n">
-        <v>2295</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
       <c r="K901" t="inlineStr">
         <is>
@@ -31209,11 +30765,9 @@
         <v>-61882.98124585988</v>
       </c>
       <c r="H902" t="n">
-        <v>1</v>
-      </c>
-      <c r="I902" t="n">
-        <v>2289</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
       <c r="K902" t="inlineStr">
         <is>
@@ -31248,11 +30802,9 @@
         <v>-61878.61443363988</v>
       </c>
       <c r="H903" t="n">
-        <v>1</v>
-      </c>
-      <c r="I903" t="n">
-        <v>2285</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
       <c r="K903" t="inlineStr">
         <is>
@@ -32730,11 +32282,9 @@
         <v>-118549.3094963599</v>
       </c>
       <c r="H943" t="n">
-        <v>1</v>
-      </c>
-      <c r="I943" t="n">
-        <v>2276</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
       <c r="K943" t="inlineStr">
         <is>
@@ -32769,11 +32319,9 @@
         <v>-118549.3094963599</v>
       </c>
       <c r="H944" t="n">
-        <v>1</v>
-      </c>
-      <c r="I944" t="n">
-        <v>2284</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
       <c r="K944" t="inlineStr">
         <is>
@@ -32808,11 +32356,9 @@
         <v>-117258.9334963599</v>
       </c>
       <c r="H945" t="n">
-        <v>1</v>
-      </c>
-      <c r="I945" t="n">
-        <v>2284</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
       <c r="K945" t="inlineStr">
         <is>
@@ -32847,11 +32393,9 @@
         <v>-116810.2360963599</v>
       </c>
       <c r="H946" t="n">
-        <v>1</v>
-      </c>
-      <c r="I946" t="n">
-        <v>2288</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
       <c r="K946" t="inlineStr">
         <is>
@@ -32886,11 +32430,9 @@
         <v>-116810.2360963599</v>
       </c>
       <c r="H947" t="n">
-        <v>1</v>
-      </c>
-      <c r="I947" t="n">
-        <v>2290</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
       <c r="K947" t="inlineStr">
         <is>
@@ -32925,11 +32467,9 @@
         <v>-113469.5949963599</v>
       </c>
       <c r="H948" t="n">
-        <v>1</v>
-      </c>
-      <c r="I948" t="n">
-        <v>2290</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
       <c r="K948" t="inlineStr">
         <is>
@@ -32964,11 +32504,9 @@
         <v>-113249.7949963599</v>
       </c>
       <c r="H949" t="n">
-        <v>1</v>
-      </c>
-      <c r="I949" t="n">
-        <v>2293</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
       <c r="K949" t="inlineStr">
         <is>
@@ -33003,11 +32541,9 @@
         <v>-112925.7949963599</v>
       </c>
       <c r="H950" t="n">
-        <v>1</v>
-      </c>
-      <c r="I950" t="n">
-        <v>2294</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
       <c r="K950" t="inlineStr">
         <is>
@@ -33042,11 +32578,9 @@
         <v>-112169.7949963599</v>
       </c>
       <c r="H951" t="n">
-        <v>1</v>
-      </c>
-      <c r="I951" t="n">
-        <v>2297</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
       <c r="K951" t="inlineStr">
         <is>
@@ -33081,11 +32615,9 @@
         <v>-112198.1360963599</v>
       </c>
       <c r="H952" t="n">
-        <v>1</v>
-      </c>
-      <c r="I952" t="n">
-        <v>2301</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
       <c r="K952" t="inlineStr">
         <is>
@@ -33120,11 +32652,9 @@
         <v>-110962.2041963599</v>
       </c>
       <c r="H953" t="n">
-        <v>1</v>
-      </c>
-      <c r="I953" t="n">
-        <v>2300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
       <c r="K953" t="inlineStr">
         <is>
@@ -33381,11 +32911,9 @@
         <v>-108455.7087963599</v>
       </c>
       <c r="H960" t="n">
-        <v>1</v>
-      </c>
-      <c r="I960" t="n">
-        <v>2310</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
       <c r="K960" t="inlineStr">
         <is>
@@ -33420,11 +32948,9 @@
         <v>-109395.7289963599</v>
       </c>
       <c r="H961" t="n">
-        <v>1</v>
-      </c>
-      <c r="I961" t="n">
-        <v>2310</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
       <c r="K961" t="inlineStr">
         <is>
@@ -33533,11 +33059,9 @@
         <v>-109954.7671519099</v>
       </c>
       <c r="H964" t="n">
-        <v>1</v>
-      </c>
-      <c r="I964" t="n">
-        <v>2304</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
       <c r="K964" t="inlineStr">
         <is>
@@ -33572,11 +33096,9 @@
         <v>-109954.7671519099</v>
       </c>
       <c r="H965" t="n">
-        <v>1</v>
-      </c>
-      <c r="I965" t="n">
-        <v>2300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
       <c r="K965" t="inlineStr">
         <is>
@@ -33611,11 +33133,9 @@
         <v>-109954.7671519099</v>
       </c>
       <c r="H966" t="n">
-        <v>1</v>
-      </c>
-      <c r="I966" t="n">
-        <v>2300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
       <c r="K966" t="inlineStr">
         <is>
@@ -33650,11 +33170,9 @@
         <v>-109954.7671519099</v>
       </c>
       <c r="H967" t="n">
-        <v>1</v>
-      </c>
-      <c r="I967" t="n">
-        <v>2300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
       <c r="K967" t="inlineStr">
         <is>
@@ -33689,11 +33207,9 @@
         <v>-107945.0728519099</v>
       </c>
       <c r="H968" t="n">
-        <v>1</v>
-      </c>
-      <c r="I968" t="n">
-        <v>2300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
       <c r="K968" t="inlineStr">
         <is>
@@ -33728,11 +33244,9 @@
         <v>-107945.0728519099</v>
       </c>
       <c r="H969" t="n">
-        <v>1</v>
-      </c>
-      <c r="I969" t="n">
-        <v>2309</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
       <c r="K969" t="inlineStr">
         <is>
@@ -33804,11 +33318,9 @@
         <v>-106418.2810519099</v>
       </c>
       <c r="H971" t="n">
-        <v>1</v>
-      </c>
-      <c r="I971" t="n">
-        <v>2311</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
       <c r="K971" t="inlineStr">
         <is>
@@ -33843,11 +33355,9 @@
         <v>-106418.2810519099</v>
       </c>
       <c r="H972" t="n">
-        <v>1</v>
-      </c>
-      <c r="I972" t="n">
-        <v>2306</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
       <c r="K972" t="inlineStr">
         <is>
@@ -33882,11 +33392,9 @@
         <v>-108386.7575519099</v>
       </c>
       <c r="H973" t="n">
-        <v>1</v>
-      </c>
-      <c r="I973" t="n">
-        <v>2306</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
       <c r="K973" t="inlineStr">
         <is>
@@ -33921,11 +33429,9 @@
         <v>-107386.7575519099</v>
       </c>
       <c r="H974" t="n">
-        <v>1</v>
-      </c>
-      <c r="I974" t="n">
-        <v>2305</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
       <c r="K974" t="inlineStr">
         <is>
@@ -33960,11 +33466,9 @@
         <v>-107387.9518519099</v>
       </c>
       <c r="H975" t="n">
-        <v>1</v>
-      </c>
-      <c r="I975" t="n">
-        <v>2310</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
       <c r="K975" t="inlineStr">
         <is>
@@ -34184,11 +33688,9 @@
         <v>-108551.5764519099</v>
       </c>
       <c r="H981" t="n">
-        <v>1</v>
-      </c>
-      <c r="I981" t="n">
-        <v>2299</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
       <c r="K981" t="inlineStr">
         <is>
@@ -34223,11 +33725,9 @@
         <v>-108551.5764519099</v>
       </c>
       <c r="H982" t="n">
-        <v>1</v>
-      </c>
-      <c r="I982" t="n">
-        <v>2305</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
       <c r="K982" t="inlineStr">
         <is>
@@ -34262,11 +33762,9 @@
         <v>-108774.9094519099</v>
       </c>
       <c r="H983" t="n">
-        <v>1</v>
-      </c>
-      <c r="I983" t="n">
-        <v>2305</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
       <c r="K983" t="inlineStr">
         <is>
@@ -34301,11 +33799,9 @@
         <v>-110063.6443519099</v>
       </c>
       <c r="H984" t="n">
-        <v>1</v>
-      </c>
-      <c r="I984" t="n">
-        <v>2298</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
       <c r="K984" t="inlineStr">
         <is>
@@ -34340,11 +33836,9 @@
         <v>-110063.6443519099</v>
       </c>
       <c r="H985" t="n">
-        <v>1</v>
-      </c>
-      <c r="I985" t="n">
-        <v>2296</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
       <c r="K985" t="inlineStr">
         <is>
@@ -34453,9 +33947,11 @@
         <v>-112981.8018519099</v>
       </c>
       <c r="H988" t="n">
-        <v>0</v>
-      </c>
-      <c r="I988" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I988" t="n">
+        <v>2299</v>
+      </c>
       <c r="J988" t="inlineStr"/>
       <c r="K988" t="inlineStr">
         <is>
@@ -34490,9 +33986,11 @@
         <v>-112917.4377519099</v>
       </c>
       <c r="H989" t="n">
-        <v>0</v>
-      </c>
-      <c r="I989" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I989" t="n">
+        <v>2296</v>
+      </c>
       <c r="J989" t="inlineStr"/>
       <c r="K989" t="inlineStr">
         <is>
@@ -36241,9 +35739,11 @@
         <v>-80139.95470085987</v>
       </c>
       <c r="H1034" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1034" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1034" t="n">
+        <v>2320</v>
+      </c>
       <c r="J1034" t="inlineStr"/>
       <c r="K1034" t="inlineStr">
         <is>
@@ -36278,9 +35778,11 @@
         <v>-81247.86791073988</v>
       </c>
       <c r="H1035" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1035" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1035" t="n">
+        <v>2328</v>
+      </c>
       <c r="J1035" t="inlineStr"/>
       <c r="K1035" t="inlineStr">
         <is>
@@ -36352,11 +35854,9 @@
         <v>-80295.84641073988</v>
       </c>
       <c r="H1037" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1037" t="n">
-        <v>2322</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="inlineStr"/>
       <c r="K1037" t="inlineStr">
         <is>
@@ -36391,11 +35891,9 @@
         <v>-81633.51171073987</v>
       </c>
       <c r="H1038" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1038" t="n">
-        <v>2323</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr"/>
       <c r="K1038" t="inlineStr">
         <is>
@@ -36469,11 +35967,9 @@
         <v>-82454.99491073987</v>
       </c>
       <c r="H1040" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1040" t="n">
-        <v>2321</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1040" t="inlineStr"/>
       <c r="J1040" t="inlineStr"/>
       <c r="K1040" t="inlineStr">
         <is>
@@ -36508,11 +36004,9 @@
         <v>-82043.55751073988</v>
       </c>
       <c r="H1041" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1041" t="n">
-        <v>2314</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1041" t="inlineStr"/>
       <c r="J1041" t="inlineStr"/>
       <c r="K1041" t="inlineStr">
         <is>
@@ -36547,11 +36041,9 @@
         <v>-82043.55751073988</v>
       </c>
       <c r="H1042" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1042" t="n">
-        <v>2315</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1042" t="inlineStr"/>
       <c r="J1042" t="inlineStr"/>
       <c r="K1042" t="inlineStr">
         <is>
@@ -36625,11 +36117,9 @@
         <v>-81995.15091073987</v>
       </c>
       <c r="H1044" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1044" t="n">
-        <v>2313</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1044" t="inlineStr"/>
       <c r="J1044" t="inlineStr"/>
       <c r="K1044" t="inlineStr">
         <is>
@@ -36664,11 +36154,9 @@
         <v>-81711.75181073988</v>
       </c>
       <c r="H1045" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1045" t="n">
-        <v>2315</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1045" t="inlineStr"/>
       <c r="J1045" t="inlineStr"/>
       <c r="K1045" t="inlineStr">
         <is>
@@ -36703,11 +36191,9 @@
         <v>-80336.46301073988</v>
       </c>
       <c r="H1046" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1046" t="n">
-        <v>2319</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1046" t="inlineStr"/>
       <c r="J1046" t="inlineStr"/>
       <c r="K1046" t="inlineStr">
         <is>
@@ -36742,11 +36228,9 @@
         <v>-80411.52511073988</v>
       </c>
       <c r="H1047" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1047" t="n">
-        <v>2323</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1047" t="inlineStr"/>
       <c r="J1047" t="inlineStr"/>
       <c r="K1047" t="inlineStr">
         <is>
@@ -36937,11 +36421,9 @@
         <v>-79579.81141073989</v>
       </c>
       <c r="H1052" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1052" t="n">
-        <v>2310</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1052" t="inlineStr"/>
       <c r="J1052" t="inlineStr"/>
       <c r="K1052" t="inlineStr">
         <is>
@@ -36976,11 +36458,9 @@
         <v>-79579.81141073989</v>
       </c>
       <c r="H1053" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1053" t="n">
-        <v>2318</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1053" t="inlineStr"/>
       <c r="J1053" t="inlineStr"/>
       <c r="K1053" t="inlineStr">
         <is>
@@ -37052,11 +36532,9 @@
         <v>-80234.54701073989</v>
       </c>
       <c r="H1055" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1055" t="n">
-        <v>2312</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1055" t="inlineStr"/>
       <c r="J1055" t="inlineStr"/>
       <c r="K1055" t="inlineStr">
         <is>
@@ -37091,11 +36569,9 @@
         <v>-80234.33081073989</v>
       </c>
       <c r="H1056" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1056" t="n">
-        <v>2311</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1056" t="inlineStr"/>
       <c r="J1056" t="inlineStr"/>
       <c r="K1056" t="inlineStr">
         <is>
@@ -37130,11 +36606,9 @@
         <v>-80333.46351073989</v>
       </c>
       <c r="H1057" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1057" t="n">
-        <v>2319</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1057" t="inlineStr"/>
       <c r="J1057" t="inlineStr"/>
       <c r="K1057" t="inlineStr">
         <is>
@@ -37391,11 +36865,9 @@
         <v>-80130.32391073988</v>
       </c>
       <c r="H1064" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1064" t="n">
-        <v>2316</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1064" t="inlineStr"/>
       <c r="J1064" t="inlineStr"/>
       <c r="K1064" t="inlineStr">
         <is>
@@ -37541,11 +37013,9 @@
         <v>-82409.27751073989</v>
       </c>
       <c r="H1068" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1068" t="n">
-        <v>2312</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1068" t="inlineStr"/>
       <c r="J1068" t="inlineStr"/>
       <c r="K1068" t="inlineStr">
         <is>
@@ -37580,11 +37050,9 @@
         <v>-82409.27751073989</v>
       </c>
       <c r="H1069" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1069" t="n">
-        <v>2305</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1069" t="inlineStr"/>
       <c r="J1069" t="inlineStr"/>
       <c r="K1069" t="inlineStr">
         <is>
@@ -37619,11 +37087,9 @@
         <v>-82409.27751073989</v>
       </c>
       <c r="H1070" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1070" t="n">
-        <v>2305</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1070" t="inlineStr"/>
       <c r="J1070" t="inlineStr"/>
       <c r="K1070" t="inlineStr">
         <is>
@@ -37658,11 +37124,9 @@
         <v>-81193.7068107399</v>
       </c>
       <c r="H1071" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1071" t="n">
-        <v>2305</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1071" t="inlineStr"/>
       <c r="J1071" t="inlineStr"/>
       <c r="K1071" t="inlineStr">
         <is>
@@ -37734,9 +37198,11 @@
         <v>-84175.2249107399</v>
       </c>
       <c r="H1073" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1073" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1073" t="n">
+        <v>2311</v>
+      </c>
       <c r="J1073" t="inlineStr"/>
       <c r="K1073" t="inlineStr">
         <is>
@@ -37808,9 +37274,11 @@
         <v>-83314.9006107399</v>
       </c>
       <c r="H1075" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1075" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1075" t="n">
+        <v>2301</v>
+      </c>
       <c r="J1075" t="inlineStr"/>
       <c r="K1075" t="inlineStr">
         <is>
@@ -39732,11 +39200,9 @@
         <v>-75425.5522052399</v>
       </c>
       <c r="H1127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1127" t="n">
-        <v>2356</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1127" t="inlineStr"/>
       <c r="J1127" t="inlineStr"/>
       <c r="K1127" t="inlineStr">
         <is>
@@ -39771,11 +39237,9 @@
         <v>-75425.5522052399</v>
       </c>
       <c r="H1128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1128" t="n">
-        <v>2355</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1128" t="inlineStr"/>
       <c r="J1128" t="inlineStr"/>
       <c r="K1128" t="inlineStr">
         <is>
@@ -39810,11 +39274,9 @@
         <v>-75425.5522052399</v>
       </c>
       <c r="H1129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1129" t="n">
-        <v>2355</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1129" t="inlineStr"/>
       <c r="J1129" t="inlineStr"/>
       <c r="K1129" t="inlineStr">
         <is>
@@ -39886,11 +39348,9 @@
         <v>-77481.9649052399</v>
       </c>
       <c r="H1131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1131" t="n">
-        <v>2356</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1131" t="inlineStr"/>
       <c r="J1131" t="inlineStr"/>
       <c r="K1131" t="inlineStr">
         <is>
@@ -41479,11 +40939,9 @@
         <v>-96077.60338573992</v>
       </c>
       <c r="H1174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1174" t="n">
-        <v>2377</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1174" t="inlineStr"/>
       <c r="J1174" t="inlineStr"/>
       <c r="K1174" t="inlineStr">
         <is>
@@ -41555,11 +41013,9 @@
         <v>-95725.02868573992</v>
       </c>
       <c r="H1176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1176" t="n">
-        <v>2369</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1176" t="inlineStr"/>
       <c r="J1176" t="inlineStr"/>
       <c r="K1176" t="inlineStr">
         <is>
@@ -41594,11 +41050,9 @@
         <v>-95778.76868573992</v>
       </c>
       <c r="H1177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1177" t="n">
-        <v>2369</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1177" t="inlineStr"/>
       <c r="J1177" t="inlineStr"/>
       <c r="K1177" t="inlineStr">
         <is>
@@ -41633,11 +41087,9 @@
         <v>-96923.40358573993</v>
       </c>
       <c r="H1178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1178" t="n">
-        <v>2364</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1178" t="inlineStr"/>
       <c r="J1178" t="inlineStr"/>
       <c r="K1178" t="inlineStr">
         <is>
@@ -41672,11 +41124,9 @@
         <v>-97858.83838573993</v>
       </c>
       <c r="H1179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1179" t="n">
-        <v>2363</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1179" t="inlineStr"/>
       <c r="J1179" t="inlineStr"/>
       <c r="K1179" t="inlineStr">
         <is>
@@ -41711,11 +41161,9 @@
         <v>-97976.98888573993</v>
       </c>
       <c r="H1180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1180" t="n">
-        <v>2356</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1180" t="inlineStr"/>
       <c r="J1180" t="inlineStr"/>
       <c r="K1180" t="inlineStr">
         <is>
@@ -41750,11 +41198,9 @@
         <v>-97413.95748573993</v>
       </c>
       <c r="H1181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1181" t="n">
-        <v>2350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1181" t="inlineStr"/>
       <c r="J1181" t="inlineStr"/>
       <c r="K1181" t="inlineStr">
         <is>
@@ -41789,11 +41235,9 @@
         <v>-94925.65288573992</v>
       </c>
       <c r="H1182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1182" t="n">
-        <v>2356</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1182" t="inlineStr"/>
       <c r="J1182" t="inlineStr"/>
       <c r="K1182" t="inlineStr">
         <is>
@@ -41828,11 +41272,9 @@
         <v>-94926.68558573992</v>
       </c>
       <c r="H1183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1183" t="n">
-        <v>2365</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1183" t="inlineStr"/>
       <c r="J1183" t="inlineStr"/>
       <c r="K1183" t="inlineStr">
         <is>
@@ -41867,11 +41309,9 @@
         <v>-94842.75478573992</v>
       </c>
       <c r="H1184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1184" t="n">
-        <v>2355</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1184" t="inlineStr"/>
       <c r="J1184" t="inlineStr"/>
       <c r="K1184" t="inlineStr">
         <is>
@@ -41906,11 +41346,9 @@
         <v>-94842.75478573992</v>
       </c>
       <c r="H1185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1185" t="n">
-        <v>2359</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1185" t="inlineStr"/>
       <c r="J1185" t="inlineStr"/>
       <c r="K1185" t="inlineStr">
         <is>
@@ -41945,11 +41383,9 @@
         <v>-94842.75478573992</v>
       </c>
       <c r="H1186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1186" t="n">
-        <v>2359</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1186" t="inlineStr"/>
       <c r="J1186" t="inlineStr"/>
       <c r="K1186" t="inlineStr">
         <is>
@@ -41984,11 +41420,9 @@
         <v>-93949.74428573991</v>
       </c>
       <c r="H1187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1187" t="n">
-        <v>2359</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1187" t="inlineStr"/>
       <c r="J1187" t="inlineStr"/>
       <c r="K1187" t="inlineStr">
         <is>
@@ -42023,11 +41457,9 @@
         <v>-94342.37188573992</v>
       </c>
       <c r="H1188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1188" t="n">
-        <v>2360</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1188" t="inlineStr"/>
       <c r="J1188" t="inlineStr"/>
       <c r="K1188" t="inlineStr">
         <is>
@@ -42062,11 +41494,9 @@
         <v>-93990.58968573992</v>
       </c>
       <c r="H1189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1189" t="n">
-        <v>2357</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1189" t="inlineStr"/>
       <c r="J1189" t="inlineStr"/>
       <c r="K1189" t="inlineStr">
         <is>
@@ -42101,11 +41531,9 @@
         <v>-93931.61238573992</v>
       </c>
       <c r="H1190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1190" t="n">
-        <v>2360</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1190" t="inlineStr"/>
       <c r="J1190" t="inlineStr"/>
       <c r="K1190" t="inlineStr">
         <is>
@@ -42140,11 +41568,9 @@
         <v>-93931.61238573992</v>
       </c>
       <c r="H1191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1191" t="n">
-        <v>2362</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1191" t="inlineStr"/>
       <c r="J1191" t="inlineStr"/>
       <c r="K1191" t="inlineStr">
         <is>
@@ -42179,11 +41605,9 @@
         <v>-93567.60738573992</v>
       </c>
       <c r="H1192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1192" t="n">
-        <v>2362</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1192" t="inlineStr"/>
       <c r="J1192" t="inlineStr"/>
       <c r="K1192" t="inlineStr">
         <is>
@@ -42218,11 +41642,9 @@
         <v>-97348.30538573992</v>
       </c>
       <c r="H1193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1193" t="n">
-        <v>2366</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1193" t="inlineStr"/>
       <c r="J1193" t="inlineStr"/>
       <c r="K1193" t="inlineStr">
         <is>
@@ -42257,11 +41679,9 @@
         <v>-94971.02448573992</v>
       </c>
       <c r="H1194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1194" t="n">
-        <v>2355</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1194" t="inlineStr"/>
       <c r="J1194" t="inlineStr"/>
       <c r="K1194" t="inlineStr">
         <is>
@@ -42296,11 +41716,9 @@
         <v>-93498.29138573993</v>
       </c>
       <c r="H1195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1195" t="n">
-        <v>2374</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1195" t="inlineStr"/>
       <c r="J1195" t="inlineStr"/>
       <c r="K1195" t="inlineStr">
         <is>
@@ -42335,11 +41753,9 @@
         <v>-93633.61098573993</v>
       </c>
       <c r="H1196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1196" t="n">
-        <v>2381</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1196" t="inlineStr"/>
       <c r="J1196" t="inlineStr"/>
       <c r="K1196" t="inlineStr">
         <is>
@@ -42374,11 +41790,9 @@
         <v>-93156.41980834992</v>
       </c>
       <c r="H1197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1197" t="n">
-        <v>2372</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1197" t="inlineStr"/>
       <c r="J1197" t="inlineStr"/>
       <c r="K1197" t="inlineStr">
         <is>
@@ -42413,11 +41827,9 @@
         <v>-93205.79730834992</v>
       </c>
       <c r="H1198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1198" t="n">
-        <v>2376</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1198" t="inlineStr"/>
       <c r="J1198" t="inlineStr"/>
       <c r="K1198" t="inlineStr">
         <is>
@@ -42452,11 +41864,9 @@
         <v>-93153.84790834993</v>
       </c>
       <c r="H1199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1199" t="n">
-        <v>2372</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1199" t="inlineStr"/>
       <c r="J1199" t="inlineStr"/>
       <c r="K1199" t="inlineStr">
         <is>
@@ -42491,11 +41901,9 @@
         <v>-93153.84790834993</v>
       </c>
       <c r="H1200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1200" t="n">
-        <v>2373</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1200" t="inlineStr"/>
       <c r="J1200" t="inlineStr"/>
       <c r="K1200" t="inlineStr">
         <is>
@@ -42530,11 +41938,9 @@
         <v>-89052.51918573992</v>
       </c>
       <c r="H1201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1201" t="n">
-        <v>2373</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1201" t="inlineStr"/>
       <c r="J1201" t="inlineStr"/>
       <c r="K1201" t="inlineStr">
         <is>
@@ -42569,11 +41975,9 @@
         <v>-86847.19018573992</v>
       </c>
       <c r="H1202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1202" t="n">
-        <v>2385</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1202" t="inlineStr"/>
       <c r="J1202" t="inlineStr"/>
       <c r="K1202" t="inlineStr">
         <is>
@@ -42608,11 +42012,9 @@
         <v>-87038.72978573992</v>
       </c>
       <c r="H1203" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1203" t="n">
-        <v>2387</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1203" t="inlineStr"/>
       <c r="J1203" t="inlineStr"/>
       <c r="K1203" t="inlineStr">
         <is>
@@ -42647,11 +42049,9 @@
         <v>-87035.92208573992</v>
       </c>
       <c r="H1204" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1204" t="n">
-        <v>2386</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1204" t="inlineStr"/>
       <c r="J1204" t="inlineStr"/>
       <c r="K1204" t="inlineStr">
         <is>
@@ -42664,6 +42064,6 @@
       <c r="M1204" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest QTUM.xlsx
+++ b/BackTest/2020-01-19 BackTest QTUM.xlsx
@@ -1408,7 +1408,7 @@
         <v>190087.7128855</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>175732.20637641</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>190398.76867641</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>244163.4895412</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>255499.3964378599</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>255499.3964378599</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>235673.43525247</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>245771.39559329</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>237039.4349957</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>225035.7935957</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>220303.1487957</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>187620.8673957</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>186200.1029957</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>187301.74997762</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>185610.34917762</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>181332.3438404</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>184916.7952404</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>180742.8425404</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>187602.2254404</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>179067.9320404</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>179067.9320404</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -25399,17 +25399,11 @@
         <v>-54646.15194622986</v>
       </c>
       <c r="H758" t="n">
-        <v>1</v>
-      </c>
-      <c r="I758" t="n">
-        <v>2252</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K758" t="inlineStr"/>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -25438,17 +25432,11 @@
         <v>-50928.21411353986</v>
       </c>
       <c r="H759" t="n">
-        <v>1</v>
-      </c>
-      <c r="I759" t="n">
-        <v>2248</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K759" t="inlineStr"/>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -25477,17 +25465,11 @@
         <v>-42065.72571353986</v>
       </c>
       <c r="H760" t="n">
-        <v>1</v>
-      </c>
-      <c r="I760" t="n">
-        <v>2251</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K760" t="inlineStr"/>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -25520,11 +25502,7 @@
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K761" t="inlineStr"/>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -25557,11 +25535,7 @@
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K762" t="inlineStr"/>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -25594,11 +25568,7 @@
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K763" t="inlineStr"/>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -25631,11 +25601,7 @@
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K764" t="inlineStr"/>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -25668,11 +25634,7 @@
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K765" t="inlineStr"/>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -25705,11 +25667,7 @@
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K766" t="inlineStr"/>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -25742,11 +25700,7 @@
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K767" t="inlineStr"/>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -25779,11 +25733,7 @@
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K768" t="inlineStr"/>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -25816,11 +25766,7 @@
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K769" t="inlineStr"/>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -25849,17 +25795,11 @@
         <v>-38157.31377512987</v>
       </c>
       <c r="H770" t="n">
-        <v>1</v>
-      </c>
-      <c r="I770" t="n">
-        <v>2251</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K770" t="inlineStr"/>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -25888,17 +25828,11 @@
         <v>-37341.86027512987</v>
       </c>
       <c r="H771" t="n">
-        <v>1</v>
-      </c>
-      <c r="I771" t="n">
-        <v>2255</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K771" t="inlineStr"/>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -25931,11 +25865,7 @@
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K772" t="inlineStr"/>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -25968,11 +25898,7 @@
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K773" t="inlineStr"/>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -26005,11 +25931,7 @@
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K774" t="inlineStr"/>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -26042,11 +25964,7 @@
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K775" t="inlineStr"/>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -26079,11 +25997,7 @@
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K776" t="inlineStr"/>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -26116,11 +26030,7 @@
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K777" t="inlineStr"/>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -26153,11 +26063,7 @@
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K778" t="inlineStr"/>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -26190,11 +26096,7 @@
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K779" t="inlineStr"/>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -26227,11 +26129,7 @@
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K780" t="inlineStr"/>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -26264,11 +26162,7 @@
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K781" t="inlineStr"/>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -26301,11 +26195,7 @@
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K782" t="inlineStr"/>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -26334,17 +26224,11 @@
         <v>-42309.01370359987</v>
       </c>
       <c r="H783" t="n">
-        <v>1</v>
-      </c>
-      <c r="I783" t="n">
-        <v>2249</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K783" t="inlineStr"/>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -26373,17 +26257,11 @@
         <v>-42309.01370359987</v>
       </c>
       <c r="H784" t="n">
-        <v>1</v>
-      </c>
-      <c r="I784" t="n">
-        <v>2240</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K784" t="inlineStr"/>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -26420,7 +26298,7 @@
       <c r="J785" t="inlineStr"/>
       <c r="K785" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L785" t="n">
@@ -26451,11 +26329,9 @@
         <v>-44924.26734677987</v>
       </c>
       <c r="H786" t="n">
-        <v>1</v>
-      </c>
-      <c r="I786" t="n">
-        <v>2240</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
       <c r="K786" t="inlineStr">
         <is>
@@ -26880,9 +26756,11 @@
         <v>-32638.83118995988</v>
       </c>
       <c r="H797" t="n">
-        <v>0</v>
-      </c>
-      <c r="I797" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I797" t="n">
+        <v>2256</v>
+      </c>
       <c r="J797" t="inlineStr"/>
       <c r="K797" t="inlineStr">
         <is>
@@ -32874,9 +32752,11 @@
         <v>-108455.7087963599</v>
       </c>
       <c r="H959" t="n">
-        <v>0</v>
-      </c>
-      <c r="I959" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I959" t="n">
+        <v>2309</v>
+      </c>
       <c r="J959" t="inlineStr"/>
       <c r="K959" t="inlineStr">
         <is>
@@ -32911,9 +32791,11 @@
         <v>-108455.7087963599</v>
       </c>
       <c r="H960" t="n">
-        <v>0</v>
-      </c>
-      <c r="I960" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I960" t="n">
+        <v>2310</v>
+      </c>
       <c r="J960" t="inlineStr"/>
       <c r="K960" t="inlineStr">
         <is>
@@ -33022,9 +32904,11 @@
         <v>-109395.7289963599</v>
       </c>
       <c r="H963" t="n">
-        <v>0</v>
-      </c>
-      <c r="I963" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I963" t="n">
+        <v>2304</v>
+      </c>
       <c r="J963" t="inlineStr"/>
       <c r="K963" t="inlineStr">
         <is>
@@ -33059,9 +32943,11 @@
         <v>-109954.7671519099</v>
       </c>
       <c r="H964" t="n">
-        <v>0</v>
-      </c>
-      <c r="I964" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I964" t="n">
+        <v>2304</v>
+      </c>
       <c r="J964" t="inlineStr"/>
       <c r="K964" t="inlineStr">
         <is>
@@ -33096,9 +32982,11 @@
         <v>-109954.7671519099</v>
       </c>
       <c r="H965" t="n">
-        <v>0</v>
-      </c>
-      <c r="I965" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I965" t="n">
+        <v>2300</v>
+      </c>
       <c r="J965" t="inlineStr"/>
       <c r="K965" t="inlineStr">
         <is>
@@ -33133,9 +33021,11 @@
         <v>-109954.7671519099</v>
       </c>
       <c r="H966" t="n">
-        <v>0</v>
-      </c>
-      <c r="I966" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I966" t="n">
+        <v>2300</v>
+      </c>
       <c r="J966" t="inlineStr"/>
       <c r="K966" t="inlineStr">
         <is>
@@ -33170,9 +33060,11 @@
         <v>-109954.7671519099</v>
       </c>
       <c r="H967" t="n">
-        <v>0</v>
-      </c>
-      <c r="I967" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I967" t="n">
+        <v>2300</v>
+      </c>
       <c r="J967" t="inlineStr"/>
       <c r="K967" t="inlineStr">
         <is>
@@ -33207,9 +33099,11 @@
         <v>-107945.0728519099</v>
       </c>
       <c r="H968" t="n">
-        <v>0</v>
-      </c>
-      <c r="I968" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I968" t="n">
+        <v>2300</v>
+      </c>
       <c r="J968" t="inlineStr"/>
       <c r="K968" t="inlineStr">
         <is>
@@ -33244,9 +33138,11 @@
         <v>-107945.0728519099</v>
       </c>
       <c r="H969" t="n">
-        <v>0</v>
-      </c>
-      <c r="I969" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I969" t="n">
+        <v>2309</v>
+      </c>
       <c r="J969" t="inlineStr"/>
       <c r="K969" t="inlineStr">
         <is>
@@ -33281,9 +33177,11 @@
         <v>-106336.9480519099</v>
       </c>
       <c r="H970" t="n">
-        <v>0</v>
-      </c>
-      <c r="I970" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I970" t="n">
+        <v>2309</v>
+      </c>
       <c r="J970" t="inlineStr"/>
       <c r="K970" t="inlineStr">
         <is>
@@ -33318,9 +33216,11 @@
         <v>-106418.2810519099</v>
       </c>
       <c r="H971" t="n">
-        <v>0</v>
-      </c>
-      <c r="I971" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I971" t="n">
+        <v>2311</v>
+      </c>
       <c r="J971" t="inlineStr"/>
       <c r="K971" t="inlineStr">
         <is>
@@ -33355,9 +33255,11 @@
         <v>-106418.2810519099</v>
       </c>
       <c r="H972" t="n">
-        <v>0</v>
-      </c>
-      <c r="I972" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I972" t="n">
+        <v>2306</v>
+      </c>
       <c r="J972" t="inlineStr"/>
       <c r="K972" t="inlineStr">
         <is>
@@ -33392,9 +33294,11 @@
         <v>-108386.7575519099</v>
       </c>
       <c r="H973" t="n">
-        <v>0</v>
-      </c>
-      <c r="I973" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I973" t="n">
+        <v>2306</v>
+      </c>
       <c r="J973" t="inlineStr"/>
       <c r="K973" t="inlineStr">
         <is>
@@ -33429,9 +33333,11 @@
         <v>-107386.7575519099</v>
       </c>
       <c r="H974" t="n">
-        <v>0</v>
-      </c>
-      <c r="I974" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I974" t="n">
+        <v>2305</v>
+      </c>
       <c r="J974" t="inlineStr"/>
       <c r="K974" t="inlineStr">
         <is>
@@ -33466,9 +33372,11 @@
         <v>-107387.9518519099</v>
       </c>
       <c r="H975" t="n">
-        <v>0</v>
-      </c>
-      <c r="I975" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I975" t="n">
+        <v>2310</v>
+      </c>
       <c r="J975" t="inlineStr"/>
       <c r="K975" t="inlineStr">
         <is>
@@ -33503,9 +33411,11 @@
         <v>-107387.9518519099</v>
       </c>
       <c r="H976" t="n">
-        <v>0</v>
-      </c>
-      <c r="I976" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I976" t="n">
+        <v>2306</v>
+      </c>
       <c r="J976" t="inlineStr"/>
       <c r="K976" t="inlineStr">
         <is>
@@ -33540,9 +33450,11 @@
         <v>-107387.9518519099</v>
       </c>
       <c r="H977" t="n">
-        <v>0</v>
-      </c>
-      <c r="I977" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I977" t="n">
+        <v>2306</v>
+      </c>
       <c r="J977" t="inlineStr"/>
       <c r="K977" t="inlineStr">
         <is>
@@ -33577,9 +33489,11 @@
         <v>-108332.7029519099</v>
       </c>
       <c r="H978" t="n">
-        <v>0</v>
-      </c>
-      <c r="I978" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I978" t="n">
+        <v>2306</v>
+      </c>
       <c r="J978" t="inlineStr"/>
       <c r="K978" t="inlineStr">
         <is>
@@ -33614,9 +33528,11 @@
         <v>-108302.0653519099</v>
       </c>
       <c r="H979" t="n">
-        <v>0</v>
-      </c>
-      <c r="I979" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I979" t="n">
+        <v>2298</v>
+      </c>
       <c r="J979" t="inlineStr"/>
       <c r="K979" t="inlineStr">
         <is>
@@ -33651,9 +33567,11 @@
         <v>-108701.7983519099</v>
       </c>
       <c r="H980" t="n">
-        <v>0</v>
-      </c>
-      <c r="I980" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I980" t="n">
+        <v>2306</v>
+      </c>
       <c r="J980" t="inlineStr"/>
       <c r="K980" t="inlineStr">
         <is>
@@ -33688,9 +33606,11 @@
         <v>-108551.5764519099</v>
       </c>
       <c r="H981" t="n">
-        <v>0</v>
-      </c>
-      <c r="I981" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I981" t="n">
+        <v>2299</v>
+      </c>
       <c r="J981" t="inlineStr"/>
       <c r="K981" t="inlineStr">
         <is>
@@ -33725,9 +33645,11 @@
         <v>-108551.5764519099</v>
       </c>
       <c r="H982" t="n">
-        <v>0</v>
-      </c>
-      <c r="I982" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I982" t="n">
+        <v>2305</v>
+      </c>
       <c r="J982" t="inlineStr"/>
       <c r="K982" t="inlineStr">
         <is>
@@ -33762,9 +33684,11 @@
         <v>-108774.9094519099</v>
       </c>
       <c r="H983" t="n">
-        <v>0</v>
-      </c>
-      <c r="I983" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I983" t="n">
+        <v>2305</v>
+      </c>
       <c r="J983" t="inlineStr"/>
       <c r="K983" t="inlineStr">
         <is>
@@ -33799,9 +33723,11 @@
         <v>-110063.6443519099</v>
       </c>
       <c r="H984" t="n">
-        <v>0</v>
-      </c>
-      <c r="I984" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I984" t="n">
+        <v>2298</v>
+      </c>
       <c r="J984" t="inlineStr"/>
       <c r="K984" t="inlineStr">
         <is>
@@ -33836,9 +33762,11 @@
         <v>-110063.6443519099</v>
       </c>
       <c r="H985" t="n">
-        <v>0</v>
-      </c>
-      <c r="I985" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I985" t="n">
+        <v>2296</v>
+      </c>
       <c r="J985" t="inlineStr"/>
       <c r="K985" t="inlineStr">
         <is>
@@ -33873,9 +33801,11 @@
         <v>-110060.8063519099</v>
       </c>
       <c r="H986" t="n">
-        <v>0</v>
-      </c>
-      <c r="I986" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I986" t="n">
+        <v>2296</v>
+      </c>
       <c r="J986" t="inlineStr"/>
       <c r="K986" t="inlineStr">
         <is>
@@ -33910,9 +33840,11 @@
         <v>-111315.9939519099</v>
       </c>
       <c r="H987" t="n">
-        <v>0</v>
-      </c>
-      <c r="I987" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I987" t="n">
+        <v>2300</v>
+      </c>
       <c r="J987" t="inlineStr"/>
       <c r="K987" t="inlineStr">
         <is>
@@ -33947,11 +33879,9 @@
         <v>-112981.8018519099</v>
       </c>
       <c r="H988" t="n">
-        <v>1</v>
-      </c>
-      <c r="I988" t="n">
-        <v>2299</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
       <c r="K988" t="inlineStr">
         <is>
@@ -33986,11 +33916,9 @@
         <v>-112917.4377519099</v>
       </c>
       <c r="H989" t="n">
-        <v>1</v>
-      </c>
-      <c r="I989" t="n">
-        <v>2296</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
       <c r="K989" t="inlineStr">
         <is>
@@ -34025,11 +33953,9 @@
         <v>-112675.0486519099</v>
       </c>
       <c r="H990" t="n">
-        <v>1</v>
-      </c>
-      <c r="I990" t="n">
-        <v>2304</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
       <c r="K990" t="inlineStr">
         <is>
@@ -35702,9 +35628,11 @@
         <v>-80276.01470085987</v>
       </c>
       <c r="H1033" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1033" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1033" t="n">
+        <v>2326</v>
+      </c>
       <c r="J1033" t="inlineStr"/>
       <c r="K1033" t="inlineStr">
         <is>
@@ -35739,11 +35667,9 @@
         <v>-80139.95470085987</v>
       </c>
       <c r="H1034" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1034" t="n">
-        <v>2320</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="inlineStr"/>
       <c r="K1034" t="inlineStr">
         <is>
@@ -35778,11 +35704,9 @@
         <v>-81247.86791073988</v>
       </c>
       <c r="H1035" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1035" t="n">
-        <v>2328</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="inlineStr"/>
       <c r="K1035" t="inlineStr">
         <is>
@@ -36191,9 +36115,11 @@
         <v>-80336.46301073988</v>
       </c>
       <c r="H1046" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1046" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1046" t="n">
+        <v>2319</v>
+      </c>
       <c r="J1046" t="inlineStr"/>
       <c r="K1046" t="inlineStr">
         <is>
@@ -36228,9 +36154,11 @@
         <v>-80411.52511073988</v>
       </c>
       <c r="H1047" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1047" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1047" t="n">
+        <v>2323</v>
+      </c>
       <c r="J1047" t="inlineStr"/>
       <c r="K1047" t="inlineStr">
         <is>
@@ -36304,11 +36232,9 @@
         <v>-80334.04551073989</v>
       </c>
       <c r="H1049" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1049" t="n">
-        <v>2317</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1049" t="inlineStr"/>
       <c r="J1049" t="inlineStr"/>
       <c r="K1049" t="inlineStr">
         <is>
@@ -36343,11 +36269,9 @@
         <v>-77506.22401073988</v>
       </c>
       <c r="H1050" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1050" t="n">
-        <v>2313</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1050" t="inlineStr"/>
       <c r="J1050" t="inlineStr"/>
       <c r="K1050" t="inlineStr">
         <is>
@@ -36382,11 +36306,9 @@
         <v>-80130.99281073989</v>
       </c>
       <c r="H1051" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1051" t="n">
-        <v>2315</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1051" t="inlineStr"/>
       <c r="J1051" t="inlineStr"/>
       <c r="K1051" t="inlineStr">
         <is>
@@ -36532,9 +36454,11 @@
         <v>-80234.54701073989</v>
       </c>
       <c r="H1055" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1055" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1055" t="n">
+        <v>2312</v>
+      </c>
       <c r="J1055" t="inlineStr"/>
       <c r="K1055" t="inlineStr">
         <is>
@@ -36680,9 +36604,11 @@
         <v>-80429.52891073989</v>
       </c>
       <c r="H1059" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1059" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1059" t="n">
+        <v>2319</v>
+      </c>
       <c r="J1059" t="inlineStr"/>
       <c r="K1059" t="inlineStr">
         <is>
@@ -37198,11 +37124,9 @@
         <v>-84175.2249107399</v>
       </c>
       <c r="H1073" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1073" t="n">
-        <v>2311</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1073" t="inlineStr"/>
       <c r="J1073" t="inlineStr"/>
       <c r="K1073" t="inlineStr">
         <is>
@@ -37274,11 +37198,9 @@
         <v>-83314.9006107399</v>
       </c>
       <c r="H1075" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1075" t="n">
-        <v>2301</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1075" t="inlineStr"/>
       <c r="J1075" t="inlineStr"/>
       <c r="K1075" t="inlineStr">
         <is>
